--- a/生产看板数据/WIP_CNEIC.xlsx
+++ b/生产看板数据/WIP_CNEIC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>站别</t>
   </si>
@@ -68,109 +68,7 @@
     <t>bin类型</t>
   </si>
   <si>
-    <t>FT100</t>
-  </si>
-  <si>
-    <t>CNEIC</t>
-  </si>
-  <si>
-    <t>C25B12001-00</t>
-  </si>
-  <si>
-    <t>ORU511e</t>
-  </si>
-  <si>
-    <t>21151360146</t>
-  </si>
-  <si>
-    <t>E012025111101_RT</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>UITC30003.000</t>
-  </si>
-  <si>
-    <t>OrionUp-U01</t>
-  </si>
-  <si>
-    <t>EIC_ORU511e_T1</t>
-  </si>
-  <si>
-    <t>工程批</t>
-  </si>
-  <si>
-    <t>2541</t>
-  </si>
-  <si>
-    <t>BTCLGA 9X9 30</t>
-  </si>
-  <si>
-    <t>bin1</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>C25B12002-01</t>
-  </si>
-  <si>
-    <t>E012025111201_RT_1</t>
-  </si>
-  <si>
-    <t>UITC30001.000</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>bin5</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>C25B12002-02</t>
-  </si>
-  <si>
-    <t>bin6</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>C25B12003-02</t>
-  </si>
-  <si>
-    <t>E012025111201_RT_2</t>
-  </si>
-  <si>
-    <t>UITC30001.011</t>
-  </si>
-  <si>
-    <t>C25B12003-03</t>
-  </si>
-  <si>
-    <t>C25B12003-07</t>
-  </si>
-  <si>
-    <t>ORU511e.1</t>
-  </si>
-  <si>
-    <t>E012025111201_RT_2_CMASK251112205257</t>
-  </si>
-  <si>
-    <t>EIC_ORU511e.1_T1</t>
-  </si>
-  <si>
-    <t>C25B12002-07</t>
-  </si>
-  <si>
-    <t>E012025111201_RT_1_CMASK251113042631</t>
   </si>
 </sst>
 </file>
@@ -576,391 +474,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>25960.0</v>
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>720.0</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
